--- a/Parent_Turtle_RC19ver5.1.1kran_main_ver/Parent_Turtle_RC19main.xlsx
+++ b/Parent_Turtle_RC19ver5.1.1kran_main_ver/Parent_Turtle_RC19main.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17025" windowHeight="5085" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17025" windowHeight="5085" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ピン配置" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="Sheet4" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2602,30 +2601,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2636,69 +2698,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3530,7 +3529,7 @@
   <dimension ref="A1:V154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="H44" sqref="H44"/>
@@ -3558,18 +3557,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="19" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="102"/>
+      <c r="B1" s="130"/>
       <c r="C1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
       <c r="G1" s="19" t="s">
         <v>21</v>
       </c>
@@ -3582,11 +3581,11 @@
       <c r="J1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="112" t="s">
+      <c r="K1" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="102"/>
-      <c r="M1" s="113"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="134"/>
       <c r="N1" s="21"/>
       <c r="O1" s="21" t="s">
         <v>26</v>
@@ -3600,10 +3599,10 @@
       <c r="R1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="102" t="s">
+      <c r="S1" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="102"/>
+      <c r="T1" s="130"/>
       <c r="U1" s="19" t="s">
         <v>21</v>
       </c>
@@ -3612,10 +3611,10 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="106">
+      <c r="B2" s="122">
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -3627,7 +3626,7 @@
       <c r="E2" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="129" t="s">
         <v>216</v>
       </c>
       <c r="H2" s="86" t="s">
@@ -3684,8 +3683,8 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="104"/>
-      <c r="B3" s="107"/>
+      <c r="A3" s="116"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="29" t="s">
         <v>35</v>
       </c>
@@ -3696,7 +3695,7 @@
         <v>168</v>
       </c>
       <c r="F3" s="32"/>
-      <c r="G3" s="108"/>
+      <c r="G3" s="129"/>
       <c r="H3" s="86" t="s">
         <v>212</v>
       </c>
@@ -3751,8 +3750,8 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="104"/>
-      <c r="B4" s="106">
+      <c r="A4" s="116"/>
+      <c r="B4" s="122">
         <v>2</v>
       </c>
       <c r="C4" s="34" t="s">
@@ -3764,7 +3763,7 @@
       <c r="E4" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="109" t="s">
+      <c r="G4" s="120" t="s">
         <v>217</v>
       </c>
       <c r="H4" s="88" t="s">
@@ -3821,8 +3820,8 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="104"/>
-      <c r="B5" s="109"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="120"/>
       <c r="C5" s="34" t="s">
         <v>35</v>
       </c>
@@ -3832,7 +3831,7 @@
       <c r="E5" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="106"/>
+      <c r="G5" s="122"/>
       <c r="H5" s="89" t="s">
         <v>214</v>
       </c>
@@ -3887,8 +3886,8 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="104"/>
-      <c r="B6" s="107">
+      <c r="A6" s="116"/>
+      <c r="B6" s="119">
         <v>3</v>
       </c>
       <c r="C6" s="22" t="s">
@@ -3903,7 +3902,7 @@
       <c r="F6" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="G6" s="108" t="s">
+      <c r="G6" s="129" t="s">
         <v>225</v>
       </c>
       <c r="H6" s="86" t="s">
@@ -3960,8 +3959,8 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" s="104"/>
-      <c r="B7" s="107"/>
+      <c r="A7" s="116"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="29" t="s">
         <v>35</v>
       </c>
@@ -3974,7 +3973,7 @@
       <c r="F7" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="G7" s="108"/>
+      <c r="G7" s="129"/>
       <c r="H7" s="86" t="s">
         <v>45</v>
       </c>
@@ -4029,8 +4028,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" s="104"/>
-      <c r="B8" s="106">
+      <c r="A8" s="116"/>
+      <c r="B8" s="122">
         <v>4</v>
       </c>
       <c r="C8" s="34" t="s">
@@ -4042,7 +4041,7 @@
       <c r="E8" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="109" t="s">
+      <c r="G8" s="120" t="s">
         <v>233</v>
       </c>
       <c r="H8" s="88" t="s">
@@ -4099,8 +4098,8 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" s="104"/>
-      <c r="B9" s="109"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="120"/>
       <c r="C9" s="34" t="s">
         <v>35</v>
       </c>
@@ -4110,7 +4109,7 @@
       <c r="E9" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="106"/>
+      <c r="G9" s="122"/>
       <c r="H9" s="89" t="s">
         <v>235</v>
       </c>
@@ -4165,8 +4164,8 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A10" s="104"/>
-      <c r="B10" s="107">
+      <c r="A10" s="116"/>
+      <c r="B10" s="119">
         <v>5</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -4177,7 +4176,7 @@
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="38"/>
-      <c r="G10" s="108"/>
+      <c r="G10" s="129"/>
       <c r="I10" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4229,8 +4228,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A11" s="104"/>
-      <c r="B11" s="107"/>
+      <c r="A11" s="116"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="29" t="s">
         <v>35</v>
       </c>
@@ -4239,7 +4238,7 @@
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="108"/>
+      <c r="G11" s="129"/>
       <c r="I11" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4291,8 +4290,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A12" s="104"/>
-      <c r="B12" s="106">
+      <c r="A12" s="116"/>
+      <c r="B12" s="122">
         <v>6</v>
       </c>
       <c r="C12" s="34" t="s">
@@ -4301,7 +4300,7 @@
       <c r="D12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="109"/>
+      <c r="G12" s="120"/>
       <c r="H12" s="88"/>
       <c r="I12" s="88" t="str">
         <f t="shared" si="1"/>
@@ -4354,15 +4353,15 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" s="104"/>
-      <c r="B13" s="109"/>
+      <c r="A13" s="116"/>
+      <c r="B13" s="120"/>
       <c r="C13" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="106"/>
+      <c r="G13" s="122"/>
       <c r="H13" s="89"/>
       <c r="I13" s="89" t="str">
         <f t="shared" si="1"/>
@@ -4415,8 +4414,8 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" s="104"/>
-      <c r="B14" s="107">
+      <c r="A14" s="116"/>
+      <c r="B14" s="119">
         <v>7</v>
       </c>
       <c r="C14" s="34" t="s">
@@ -4425,7 +4424,7 @@
       <c r="D14" s="36"/>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
-      <c r="G14" s="108"/>
+      <c r="G14" s="129"/>
       <c r="I14" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4477,15 +4476,15 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A15" s="104"/>
-      <c r="B15" s="107"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="31"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="108"/>
+      <c r="G15" s="129"/>
       <c r="I15" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4537,14 +4536,14 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A16" s="104"/>
-      <c r="B16" s="106">
+      <c r="A16" s="116"/>
+      <c r="B16" s="122">
         <v>8</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="109"/>
+      <c r="G16" s="120"/>
       <c r="H16" s="88"/>
       <c r="I16" s="88" t="str">
         <f t="shared" si="1"/>
@@ -4597,15 +4596,15 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="105"/>
-      <c r="B17" s="114"/>
+      <c r="A17" s="126"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="39" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="40"/>
       <c r="E17" s="41"/>
       <c r="F17" s="42"/>
-      <c r="G17" s="115"/>
+      <c r="G17" s="128"/>
       <c r="H17" s="90"/>
       <c r="I17" s="90" t="str">
         <f t="shared" si="1"/>
@@ -4658,10 +4657,10 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A18" s="103" t="s">
+      <c r="A18" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="106">
+      <c r="B18" s="122">
         <v>1</v>
       </c>
       <c r="C18" s="22" t="s">
@@ -4673,7 +4672,7 @@
       <c r="E18" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="117"/>
+      <c r="G18" s="104"/>
       <c r="I18" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4725,8 +4724,8 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A19" s="104"/>
-      <c r="B19" s="109"/>
+      <c r="A19" s="116"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="29" t="s">
         <v>35</v>
       </c>
@@ -4736,7 +4735,7 @@
       <c r="E19" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="118"/>
+      <c r="G19" s="103"/>
       <c r="I19" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4788,8 +4787,8 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A20" s="104"/>
-      <c r="B20" s="107">
+      <c r="A20" s="116"/>
+      <c r="B20" s="119">
         <v>2</v>
       </c>
       <c r="C20" s="34" t="s">
@@ -4802,7 +4801,7 @@
         <v>61</v>
       </c>
       <c r="F20" s="38"/>
-      <c r="G20" s="109" t="s">
+      <c r="G20" s="120" t="s">
         <v>215</v>
       </c>
       <c r="H20" s="88" t="s">
@@ -4859,8 +4858,8 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="116"/>
-      <c r="B21" s="114"/>
+      <c r="A21" s="117"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="39" t="s">
         <v>62</v>
       </c>
@@ -4871,7 +4870,7 @@
         <v>64</v>
       </c>
       <c r="F21" s="42"/>
-      <c r="G21" s="115"/>
+      <c r="G21" s="128"/>
       <c r="H21" s="90" t="s">
         <v>210</v>
       </c>
@@ -4926,10 +4925,10 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A22" s="119" t="s">
+      <c r="A22" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="120">
+      <c r="B22" s="118">
         <v>1</v>
       </c>
       <c r="C22" s="34" t="s">
@@ -4942,7 +4941,7 @@
         <v>67</v>
       </c>
       <c r="F22" s="46"/>
-      <c r="G22" s="117"/>
+      <c r="G22" s="104"/>
       <c r="H22" s="86" t="s">
         <v>218</v>
       </c>
@@ -4997,8 +4996,8 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A23" s="104"/>
-      <c r="B23" s="109"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="120"/>
       <c r="C23" s="34" t="s">
         <v>68</v>
       </c>
@@ -5008,7 +5007,7 @@
       <c r="E23" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="118"/>
+      <c r="G23" s="103"/>
       <c r="H23" s="86" t="s">
         <v>219</v>
       </c>
@@ -5063,8 +5062,8 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A24" s="104"/>
-      <c r="B24" s="107">
+      <c r="A24" s="116"/>
+      <c r="B24" s="119">
         <v>2</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -5075,7 +5074,7 @@
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
-      <c r="G24" s="109"/>
+      <c r="G24" s="120"/>
       <c r="H24" s="88"/>
       <c r="I24" s="88" t="str">
         <f t="shared" si="1"/>
@@ -5128,8 +5127,8 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A25" s="104"/>
-      <c r="B25" s="107"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="119"/>
       <c r="C25" s="34" t="s">
         <v>70</v>
       </c>
@@ -5138,7 +5137,7 @@
       </c>
       <c r="E25" s="31"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="106"/>
+      <c r="G25" s="122"/>
       <c r="H25" s="89"/>
       <c r="I25" s="89" t="str">
         <f t="shared" si="1"/>
@@ -5191,8 +5190,8 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A26" s="104"/>
-      <c r="B26" s="106">
+      <c r="A26" s="116"/>
+      <c r="B26" s="122">
         <v>3</v>
       </c>
       <c r="C26" s="22" t="s">
@@ -5203,7 +5202,7 @@
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
-      <c r="G26" s="121"/>
+      <c r="G26" s="102"/>
       <c r="I26" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -5255,8 +5254,8 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A27" s="104"/>
-      <c r="B27" s="107"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="119"/>
       <c r="C27" s="34" t="s">
         <v>70</v>
       </c>
@@ -5267,7 +5266,7 @@
         <v>78</v>
       </c>
       <c r="F27" s="32"/>
-      <c r="G27" s="118"/>
+      <c r="G27" s="103"/>
       <c r="I27" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -5319,14 +5318,14 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A28" s="104"/>
-      <c r="B28" s="107">
+      <c r="A28" s="116"/>
+      <c r="B28" s="119">
         <v>4</v>
       </c>
       <c r="C28" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="109"/>
+      <c r="G28" s="120"/>
       <c r="H28" s="88"/>
       <c r="I28" s="88" t="str">
         <f t="shared" si="1"/>
@@ -5379,15 +5378,15 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="105"/>
-      <c r="B29" s="114"/>
+      <c r="A29" s="126"/>
+      <c r="B29" s="127"/>
       <c r="C29" s="39" t="s">
         <v>70</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="41"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="115"/>
+      <c r="G29" s="128"/>
       <c r="H29" s="90"/>
       <c r="I29" s="90" t="str">
         <f t="shared" si="1"/>
@@ -5440,7 +5439,7 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A30" s="103" t="s">
+      <c r="A30" s="125" t="s">
         <v>74</v>
       </c>
       <c r="B30" s="47" t="s">
@@ -5502,8 +5501,8 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A31" s="104"/>
-      <c r="B31" s="107" t="s">
+      <c r="A31" s="116"/>
+      <c r="B31" s="119" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="34" t="s">
@@ -5512,7 +5511,7 @@
       <c r="D31" s="36"/>
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
-      <c r="G31" s="121"/>
+      <c r="G31" s="102"/>
       <c r="H31" s="88"/>
       <c r="I31" s="88" t="str">
         <f t="shared" si="1"/>
@@ -5565,14 +5564,14 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A32" s="104"/>
-      <c r="B32" s="107"/>
+      <c r="A32" s="116"/>
+      <c r="B32" s="119"/>
       <c r="C32" s="34" t="s">
         <v>79</v>
       </c>
       <c r="D32" s="48"/>
       <c r="E32" s="50"/>
-      <c r="G32" s="122"/>
+      <c r="G32" s="105"/>
       <c r="I32" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -5624,14 +5623,14 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A33" s="104"/>
-      <c r="B33" s="107"/>
+      <c r="A33" s="116"/>
+      <c r="B33" s="119"/>
       <c r="C33" s="34" t="s">
         <v>80</v>
       </c>
       <c r="D33" s="48"/>
       <c r="E33" s="50"/>
-      <c r="G33" s="122"/>
+      <c r="G33" s="105"/>
       <c r="I33" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -5683,14 +5682,14 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A34" s="104"/>
-      <c r="B34" s="107"/>
+      <c r="A34" s="116"/>
+      <c r="B34" s="119"/>
       <c r="C34" s="34" t="s">
         <v>81</v>
       </c>
       <c r="D34" s="48"/>
       <c r="E34" s="50"/>
-      <c r="G34" s="122"/>
+      <c r="G34" s="105"/>
       <c r="I34" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -5742,15 +5741,15 @@
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A35" s="104"/>
-      <c r="B35" s="107"/>
+      <c r="A35" s="116"/>
+      <c r="B35" s="119"/>
       <c r="C35" s="34" t="s">
         <v>82</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="31"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="118"/>
+      <c r="G35" s="103"/>
       <c r="H35" s="89"/>
       <c r="I35" s="89" t="str">
         <f t="shared" si="1"/>
@@ -5803,15 +5802,15 @@
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A36" s="104"/>
-      <c r="B36" s="106" t="s">
+      <c r="A36" s="116"/>
+      <c r="B36" s="122" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>77</v>
       </c>
       <c r="D36" s="48"/>
-      <c r="G36" s="121"/>
+      <c r="G36" s="102"/>
       <c r="I36" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -5863,14 +5862,14 @@
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A37" s="104"/>
-      <c r="B37" s="107"/>
+      <c r="A37" s="116"/>
+      <c r="B37" s="119"/>
       <c r="C37" s="34" t="s">
         <v>84</v>
       </c>
       <c r="D37" s="48"/>
       <c r="E37" s="50"/>
-      <c r="G37" s="122"/>
+      <c r="G37" s="105"/>
       <c r="I37" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -5922,14 +5921,14 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A38" s="104"/>
-      <c r="B38" s="107"/>
+      <c r="A38" s="116"/>
+      <c r="B38" s="119"/>
       <c r="C38" s="34" t="s">
         <v>86</v>
       </c>
       <c r="D38" s="48"/>
       <c r="E38" s="50"/>
-      <c r="G38" s="122"/>
+      <c r="G38" s="105"/>
       <c r="I38" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -5981,14 +5980,14 @@
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A39" s="104"/>
-      <c r="B39" s="107"/>
+      <c r="A39" s="116"/>
+      <c r="B39" s="119"/>
       <c r="C39" s="34" t="s">
         <v>81</v>
       </c>
       <c r="D39" s="48"/>
       <c r="E39" s="50"/>
-      <c r="G39" s="122"/>
+      <c r="G39" s="105"/>
       <c r="I39" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6040,12 +6039,12 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="116"/>
-      <c r="B40" s="109"/>
+      <c r="A40" s="117"/>
+      <c r="B40" s="120"/>
       <c r="C40" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="123"/>
+      <c r="G40" s="121"/>
       <c r="I40" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6097,10 +6096,10 @@
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A41" s="124" t="s">
+      <c r="A41" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="120">
+      <c r="B41" s="118">
         <v>1</v>
       </c>
       <c r="C41" s="52" t="s">
@@ -6113,7 +6112,7 @@
       <c r="F41" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="G41" s="117" t="s">
+      <c r="G41" s="104" t="s">
         <v>208</v>
       </c>
       <c r="H41" s="85" t="s">
@@ -6170,8 +6169,8 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A42" s="125"/>
-      <c r="B42" s="106"/>
+      <c r="A42" s="124"/>
+      <c r="B42" s="122"/>
       <c r="C42" s="54" t="s">
         <v>91</v>
       </c>
@@ -6184,7 +6183,7 @@
       <c r="F42" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="G42" s="122"/>
+      <c r="G42" s="105"/>
       <c r="I42" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6236,8 +6235,8 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A43" s="125"/>
-      <c r="B43" s="107"/>
+      <c r="A43" s="124"/>
+      <c r="B43" s="119"/>
       <c r="C43" s="55" t="s">
         <v>93</v>
       </c>
@@ -6248,7 +6247,7 @@
       <c r="F43" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="G43" s="122"/>
+      <c r="G43" s="105"/>
       <c r="H43" s="86" t="s">
         <v>239</v>
       </c>
@@ -6303,8 +6302,8 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A44" s="125"/>
-      <c r="B44" s="107"/>
+      <c r="A44" s="124"/>
+      <c r="B44" s="119"/>
       <c r="C44" s="55" t="s">
         <v>95</v>
       </c>
@@ -6317,7 +6316,7 @@
       <c r="F44" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="122"/>
+      <c r="G44" s="105"/>
       <c r="I44" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6369,8 +6368,8 @@
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A45" s="125"/>
-      <c r="B45" s="107"/>
+      <c r="A45" s="124"/>
+      <c r="B45" s="119"/>
       <c r="C45" s="55" t="s">
         <v>98</v>
       </c>
@@ -6381,7 +6380,7 @@
       <c r="F45" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="122"/>
+      <c r="G45" s="105"/>
       <c r="I45" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6433,8 +6432,8 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A46" s="125"/>
-      <c r="B46" s="107"/>
+      <c r="A46" s="124"/>
+      <c r="B46" s="119"/>
       <c r="C46" s="55" t="s">
         <v>100</v>
       </c>
@@ -6447,7 +6446,7 @@
       <c r="F46" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="G46" s="122"/>
+      <c r="G46" s="105"/>
       <c r="I46" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6499,8 +6498,8 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A47" s="125"/>
-      <c r="B47" s="107"/>
+      <c r="A47" s="124"/>
+      <c r="B47" s="119"/>
       <c r="C47" s="55" t="s">
         <v>104</v>
       </c>
@@ -6511,7 +6510,7 @@
       <c r="F47" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="G47" s="118"/>
+      <c r="G47" s="103"/>
       <c r="H47" s="89"/>
       <c r="I47" s="89" t="str">
         <f t="shared" si="1"/>
@@ -6564,8 +6563,8 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A48" s="125"/>
-      <c r="B48" s="106">
+      <c r="A48" s="124"/>
+      <c r="B48" s="122">
         <v>2</v>
       </c>
       <c r="C48" s="54" t="s">
@@ -6580,7 +6579,7 @@
       <c r="F48" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="121" t="s">
+      <c r="G48" s="102" t="s">
         <v>230</v>
       </c>
       <c r="H48" s="86" t="s">
@@ -6637,8 +6636,8 @@
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A49" s="125"/>
-      <c r="B49" s="107"/>
+      <c r="A49" s="124"/>
+      <c r="B49" s="119"/>
       <c r="C49" s="55" t="s">
         <v>93</v>
       </c>
@@ -6648,7 +6647,7 @@
       <c r="E49" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="122"/>
+      <c r="G49" s="105"/>
       <c r="H49" s="86" t="s">
         <v>231</v>
       </c>
@@ -6703,8 +6702,8 @@
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A50" s="125"/>
-      <c r="B50" s="107"/>
+      <c r="A50" s="124"/>
+      <c r="B50" s="119"/>
       <c r="C50" s="55" t="s">
         <v>98</v>
       </c>
@@ -6714,7 +6713,7 @@
       <c r="E50" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="G50" s="122"/>
+      <c r="G50" s="105"/>
       <c r="I50" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6766,8 +6765,8 @@
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A51" s="125"/>
-      <c r="B51" s="109"/>
+      <c r="A51" s="124"/>
+      <c r="B51" s="120"/>
       <c r="C51" s="56" t="s">
         <v>104</v>
       </c>
@@ -6777,7 +6776,7 @@
       <c r="E51" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G51" s="118"/>
+      <c r="G51" s="103"/>
       <c r="H51" s="89"/>
       <c r="I51" s="89" t="str">
         <f t="shared" si="1"/>
@@ -6830,8 +6829,8 @@
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A52" s="125"/>
-      <c r="B52" s="107">
+      <c r="A52" s="124"/>
+      <c r="B52" s="119">
         <v>3</v>
       </c>
       <c r="C52" s="55" t="s">
@@ -6846,7 +6845,7 @@
       <c r="F52" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="G52" s="121" t="s">
+      <c r="G52" s="102" t="s">
         <v>208</v>
       </c>
       <c r="H52" s="86" t="s">
@@ -6903,8 +6902,8 @@
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A53" s="125"/>
-      <c r="B53" s="107"/>
+      <c r="A53" s="124"/>
+      <c r="B53" s="119"/>
       <c r="C53" s="55" t="s">
         <v>93</v>
       </c>
@@ -6917,7 +6916,7 @@
       <c r="F53" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G53" s="122"/>
+      <c r="G53" s="105"/>
       <c r="H53" s="86" t="s">
         <v>237</v>
       </c>
@@ -6972,8 +6971,8 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A54" s="125"/>
-      <c r="B54" s="107"/>
+      <c r="A54" s="124"/>
+      <c r="B54" s="119"/>
       <c r="C54" s="55" t="s">
         <v>98</v>
       </c>
@@ -6984,7 +6983,7 @@
       <c r="F54" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="G54" s="122"/>
+      <c r="G54" s="105"/>
       <c r="I54" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7036,8 +7035,8 @@
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A55" s="125"/>
-      <c r="B55" s="107"/>
+      <c r="A55" s="124"/>
+      <c r="B55" s="119"/>
       <c r="C55" s="55" t="s">
         <v>104</v>
       </c>
@@ -7048,7 +7047,7 @@
       <c r="F55" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G55" s="118"/>
+      <c r="G55" s="103"/>
       <c r="H55" s="89"/>
       <c r="I55" s="89" t="str">
         <f t="shared" si="1"/>
@@ -7101,8 +7100,8 @@
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A56" s="125"/>
-      <c r="B56" s="106">
+      <c r="A56" s="124"/>
+      <c r="B56" s="122">
         <v>4</v>
       </c>
       <c r="C56" s="54" t="s">
@@ -7114,7 +7113,7 @@
       <c r="E56" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="G56" s="121" t="s">
+      <c r="G56" s="102" t="s">
         <v>226</v>
       </c>
       <c r="H56" s="86" t="s">
@@ -7171,8 +7170,8 @@
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A57" s="125"/>
-      <c r="B57" s="107"/>
+      <c r="A57" s="124"/>
+      <c r="B57" s="119"/>
       <c r="C57" s="55" t="s">
         <v>93</v>
       </c>
@@ -7182,7 +7181,7 @@
       <c r="E57" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="G57" s="122"/>
+      <c r="G57" s="105"/>
       <c r="H57" s="86" t="s">
         <v>228</v>
       </c>
@@ -7237,8 +7236,8 @@
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A58" s="125"/>
-      <c r="B58" s="107"/>
+      <c r="A58" s="124"/>
+      <c r="B58" s="119"/>
       <c r="C58" s="55" t="s">
         <v>98</v>
       </c>
@@ -7248,7 +7247,7 @@
       <c r="E58" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="G58" s="122"/>
+      <c r="G58" s="105"/>
       <c r="I58" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7300,8 +7299,8 @@
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A59" s="125"/>
-      <c r="B59" s="109"/>
+      <c r="A59" s="124"/>
+      <c r="B59" s="120"/>
       <c r="C59" s="56" t="s">
         <v>104</v>
       </c>
@@ -7311,7 +7310,7 @@
       <c r="E59" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="G59" s="118"/>
+      <c r="G59" s="103"/>
       <c r="H59" s="89"/>
       <c r="I59" s="89" t="str">
         <f t="shared" si="1"/>
@@ -7364,8 +7363,8 @@
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A60" s="125"/>
-      <c r="B60" s="107">
+      <c r="A60" s="124"/>
+      <c r="B60" s="119">
         <v>5</v>
       </c>
       <c r="C60" s="55" t="s">
@@ -7376,7 +7375,7 @@
       </c>
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
-      <c r="G60" s="121"/>
+      <c r="G60" s="102"/>
       <c r="I60" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7428,15 +7427,15 @@
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A61" s="125"/>
-      <c r="B61" s="107"/>
+      <c r="A61" s="124"/>
+      <c r="B61" s="119"/>
       <c r="C61" s="55" t="s">
         <v>93</v>
       </c>
       <c r="D61" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G61" s="122"/>
+      <c r="G61" s="105"/>
       <c r="J61" s="3"/>
       <c r="K61" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7484,15 +7483,15 @@
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A62" s="125"/>
-      <c r="B62" s="107"/>
+      <c r="A62" s="124"/>
+      <c r="B62" s="119"/>
       <c r="C62" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D62" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G62" s="122"/>
+      <c r="G62" s="105"/>
       <c r="I62" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7544,8 +7543,8 @@
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A63" s="125"/>
-      <c r="B63" s="107"/>
+      <c r="A63" s="124"/>
+      <c r="B63" s="119"/>
       <c r="C63" s="55" t="s">
         <v>104</v>
       </c>
@@ -7554,7 +7553,7 @@
       </c>
       <c r="E63" s="31"/>
       <c r="F63" s="32"/>
-      <c r="G63" s="118"/>
+      <c r="G63" s="103"/>
       <c r="H63" s="89"/>
       <c r="I63" s="89" t="str">
         <f t="shared" si="1"/>
@@ -7607,8 +7606,8 @@
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A64" s="125"/>
-      <c r="B64" s="106">
+      <c r="A64" s="124"/>
+      <c r="B64" s="122">
         <v>6</v>
       </c>
       <c r="C64" s="54" t="s">
@@ -7666,8 +7665,8 @@
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A65" s="125"/>
-      <c r="B65" s="107"/>
+      <c r="A65" s="124"/>
+      <c r="B65" s="119"/>
       <c r="C65" s="55" t="s">
         <v>93</v>
       </c>
@@ -7723,8 +7722,8 @@
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A66" s="125"/>
-      <c r="B66" s="107"/>
+      <c r="A66" s="124"/>
+      <c r="B66" s="119"/>
       <c r="C66" s="55" t="s">
         <v>98</v>
       </c>
@@ -7780,8 +7779,8 @@
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A67" s="125"/>
-      <c r="B67" s="109"/>
+      <c r="A67" s="124"/>
+      <c r="B67" s="120"/>
       <c r="C67" s="56" t="s">
         <v>104</v>
       </c>
@@ -7838,8 +7837,8 @@
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A68" s="125"/>
-      <c r="B68" s="107">
+      <c r="A68" s="124"/>
+      <c r="B68" s="119">
         <v>8</v>
       </c>
       <c r="C68" s="55" t="s">
@@ -7850,7 +7849,7 @@
       </c>
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
-      <c r="G68" s="121" t="s">
+      <c r="G68" s="102" t="s">
         <v>229</v>
       </c>
       <c r="I68" s="86" t="str">
@@ -7904,8 +7903,8 @@
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A69" s="125"/>
-      <c r="B69" s="106"/>
+      <c r="A69" s="124"/>
+      <c r="B69" s="122"/>
       <c r="C69" s="54" t="s">
         <v>91</v>
       </c>
@@ -7915,7 +7914,7 @@
       <c r="E69" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="G69" s="122"/>
+      <c r="G69" s="105"/>
       <c r="I69" s="86" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -7967,15 +7966,15 @@
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A70" s="125"/>
-      <c r="B70" s="107"/>
+      <c r="A70" s="124"/>
+      <c r="B70" s="119"/>
       <c r="C70" s="55" t="s">
         <v>93</v>
       </c>
       <c r="D70" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G70" s="122"/>
+      <c r="G70" s="105"/>
       <c r="I70" s="86" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -8027,8 +8026,8 @@
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A71" s="125"/>
-      <c r="B71" s="107"/>
+      <c r="A71" s="124"/>
+      <c r="B71" s="119"/>
       <c r="C71" s="55" t="s">
         <v>95</v>
       </c>
@@ -8038,7 +8037,7 @@
       <c r="E71" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="G71" s="122"/>
+      <c r="G71" s="105"/>
       <c r="I71" s="86" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -8090,15 +8089,15 @@
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A72" s="125"/>
-      <c r="B72" s="107"/>
+      <c r="A72" s="124"/>
+      <c r="B72" s="119"/>
       <c r="C72" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D72" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G72" s="122"/>
+      <c r="G72" s="105"/>
       <c r="I72" s="86" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -8150,8 +8149,8 @@
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A73" s="125"/>
-      <c r="B73" s="107"/>
+      <c r="A73" s="124"/>
+      <c r="B73" s="119"/>
       <c r="C73" s="55" t="s">
         <v>100</v>
       </c>
@@ -8161,7 +8160,7 @@
       <c r="E73" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="G73" s="122"/>
+      <c r="G73" s="105"/>
       <c r="I73" s="86" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -8213,8 +8212,8 @@
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A74" s="125"/>
-      <c r="B74" s="107"/>
+      <c r="A74" s="124"/>
+      <c r="B74" s="119"/>
       <c r="C74" s="55" t="s">
         <v>104</v>
       </c>
@@ -8223,7 +8222,7 @@
       </c>
       <c r="E74" s="31"/>
       <c r="F74" s="32"/>
-      <c r="G74" s="118"/>
+      <c r="G74" s="103"/>
       <c r="H74" s="89"/>
       <c r="I74" s="89" t="str">
         <f t="shared" si="12"/>
@@ -8276,8 +8275,8 @@
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A75" s="125"/>
-      <c r="B75" s="109">
+      <c r="A75" s="124"/>
+      <c r="B75" s="120">
         <v>9</v>
       </c>
       <c r="C75" s="55" t="s">
@@ -8290,7 +8289,7 @@
         <v>113</v>
       </c>
       <c r="F75" s="38"/>
-      <c r="G75" s="121"/>
+      <c r="G75" s="102"/>
       <c r="I75" s="86" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -8342,8 +8341,8 @@
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A76" s="125"/>
-      <c r="B76" s="106"/>
+      <c r="A76" s="124"/>
+      <c r="B76" s="122"/>
       <c r="C76" s="55" t="s">
         <v>93</v>
       </c>
@@ -8354,7 +8353,7 @@
         <v>114</v>
       </c>
       <c r="F76" s="32"/>
-      <c r="G76" s="118"/>
+      <c r="G76" s="103"/>
       <c r="H76" s="89"/>
       <c r="I76" s="89" t="str">
         <f t="shared" si="12"/>
@@ -8407,7 +8406,7 @@
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A77" s="125"/>
+      <c r="A77" s="124"/>
       <c r="B77" s="57">
         <v>10</v>
       </c>
@@ -8472,7 +8471,7 @@
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A78" s="125"/>
+      <c r="A78" s="124"/>
       <c r="B78" s="37">
         <v>11</v>
       </c>
@@ -8535,8 +8534,8 @@
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A79" s="125"/>
-      <c r="B79" s="133">
+      <c r="A79" s="124"/>
+      <c r="B79" s="113">
         <v>12</v>
       </c>
       <c r="C79" s="56" t="s">
@@ -8599,8 +8598,8 @@
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A80" s="125"/>
-      <c r="B80" s="134"/>
+      <c r="A80" s="124"/>
+      <c r="B80" s="114"/>
       <c r="C80" s="56" t="s">
         <v>93</v>
       </c>
@@ -8662,7 +8661,7 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A81" s="125"/>
+      <c r="A81" s="124"/>
       <c r="B81" s="37">
         <v>13</v>
       </c>
@@ -8725,7 +8724,7 @@
       </c>
     </row>
     <row r="82" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="125"/>
+      <c r="A82" s="124"/>
       <c r="B82" s="37">
         <v>14</v>
       </c>
@@ -8789,10 +8788,10 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A83" s="119" t="s">
+      <c r="A83" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="B83" s="120">
+      <c r="B83" s="118">
         <v>1</v>
       </c>
       <c r="C83" s="58" t="s">
@@ -8856,8 +8855,8 @@
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A84" s="104"/>
-      <c r="B84" s="107"/>
+      <c r="A84" s="116"/>
+      <c r="B84" s="119"/>
       <c r="C84" s="55" t="s">
         <v>117</v>
       </c>
@@ -8916,8 +8915,8 @@
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A85" s="104"/>
-      <c r="B85" s="107"/>
+      <c r="A85" s="116"/>
+      <c r="B85" s="119"/>
       <c r="C85" s="55" t="s">
         <v>118</v>
       </c>
@@ -8976,8 +8975,8 @@
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A86" s="104"/>
-      <c r="B86" s="107"/>
+      <c r="A86" s="116"/>
+      <c r="B86" s="119"/>
       <c r="C86" s="55" t="s">
         <v>119</v>
       </c>
@@ -9036,8 +9035,8 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A87" s="104"/>
-      <c r="B87" s="107"/>
+      <c r="A87" s="116"/>
+      <c r="B87" s="119"/>
       <c r="C87" s="55" t="s">
         <v>120</v>
       </c>
@@ -9096,8 +9095,8 @@
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A88" s="104"/>
-      <c r="B88" s="107"/>
+      <c r="A88" s="116"/>
+      <c r="B88" s="119"/>
       <c r="C88" s="55" t="s">
         <v>121</v>
       </c>
@@ -9156,8 +9155,8 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A89" s="104"/>
-      <c r="B89" s="107"/>
+      <c r="A89" s="116"/>
+      <c r="B89" s="119"/>
       <c r="C89" s="55" t="s">
         <v>122</v>
       </c>
@@ -9216,8 +9215,8 @@
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A90" s="104"/>
-      <c r="B90" s="107"/>
+      <c r="A90" s="116"/>
+      <c r="B90" s="119"/>
       <c r="C90" s="55" t="s">
         <v>123</v>
       </c>
@@ -9276,8 +9275,8 @@
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A91" s="104"/>
-      <c r="B91" s="107"/>
+      <c r="A91" s="116"/>
+      <c r="B91" s="119"/>
       <c r="C91" s="55" t="s">
         <v>124</v>
       </c>
@@ -9336,8 +9335,8 @@
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A92" s="104"/>
-      <c r="B92" s="107"/>
+      <c r="A92" s="116"/>
+      <c r="B92" s="119"/>
       <c r="C92" s="55" t="s">
         <v>125</v>
       </c>
@@ -9396,15 +9395,15 @@
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A93" s="104"/>
-      <c r="B93" s="107"/>
+      <c r="A93" s="116"/>
+      <c r="B93" s="119"/>
       <c r="C93" s="55" t="s">
         <v>126</v>
       </c>
       <c r="D93" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="G93" s="122" t="s">
+      <c r="G93" s="105" t="s">
         <v>220</v>
       </c>
       <c r="H93" s="86" t="s">
@@ -9461,15 +9460,15 @@
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A94" s="104"/>
-      <c r="B94" s="107"/>
+      <c r="A94" s="116"/>
+      <c r="B94" s="119"/>
       <c r="C94" s="55" t="s">
         <v>127</v>
       </c>
       <c r="D94" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G94" s="122"/>
+      <c r="G94" s="105"/>
       <c r="H94" s="86" t="s">
         <v>222</v>
       </c>
@@ -9524,15 +9523,15 @@
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A95" s="104"/>
-      <c r="B95" s="107"/>
+      <c r="A95" s="116"/>
+      <c r="B95" s="119"/>
       <c r="C95" s="55" t="s">
         <v>128</v>
       </c>
       <c r="D95" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="G95" s="122"/>
+      <c r="G95" s="105"/>
       <c r="H95" s="86" t="s">
         <v>223</v>
       </c>
@@ -9587,15 +9586,15 @@
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A96" s="104"/>
-      <c r="B96" s="107"/>
+      <c r="A96" s="116"/>
+      <c r="B96" s="119"/>
       <c r="C96" s="55" t="s">
         <v>129</v>
       </c>
       <c r="D96" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="G96" s="122"/>
+      <c r="G96" s="105"/>
       <c r="H96" s="86" t="s">
         <v>224</v>
       </c>
@@ -9650,8 +9649,8 @@
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A97" s="104"/>
-      <c r="B97" s="107"/>
+      <c r="A97" s="116"/>
+      <c r="B97" s="119"/>
       <c r="C97" s="55" t="s">
         <v>130</v>
       </c>
@@ -9710,8 +9709,8 @@
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A98" s="104"/>
-      <c r="B98" s="109"/>
+      <c r="A98" s="116"/>
+      <c r="B98" s="120"/>
       <c r="C98" s="55" t="s">
         <v>131</v>
       </c>
@@ -9771,8 +9770,8 @@
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A99" s="104"/>
-      <c r="B99" s="107">
+      <c r="A99" s="116"/>
+      <c r="B99" s="119">
         <v>2</v>
       </c>
       <c r="C99" s="34" t="s">
@@ -9835,8 +9834,8 @@
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A100" s="104"/>
-      <c r="B100" s="107"/>
+      <c r="A100" s="116"/>
+      <c r="B100" s="119"/>
       <c r="C100" s="34" t="s">
         <v>132</v>
       </c>
@@ -9895,8 +9894,8 @@
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A101" s="104"/>
-      <c r="B101" s="107"/>
+      <c r="A101" s="116"/>
+      <c r="B101" s="119"/>
       <c r="C101" s="34" t="s">
         <v>118</v>
       </c>
@@ -9955,8 +9954,8 @@
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A102" s="104"/>
-      <c r="B102" s="107"/>
+      <c r="A102" s="116"/>
+      <c r="B102" s="119"/>
       <c r="C102" s="34" t="s">
         <v>119</v>
       </c>
@@ -10015,8 +10014,8 @@
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A103" s="104"/>
-      <c r="B103" s="107"/>
+      <c r="A103" s="116"/>
+      <c r="B103" s="119"/>
       <c r="C103" s="34" t="s">
         <v>120</v>
       </c>
@@ -10075,8 +10074,8 @@
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A104" s="104"/>
-      <c r="B104" s="107"/>
+      <c r="A104" s="116"/>
+      <c r="B104" s="119"/>
       <c r="C104" s="34" t="s">
         <v>121</v>
       </c>
@@ -10135,8 +10134,8 @@
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A105" s="104"/>
-      <c r="B105" s="107"/>
+      <c r="A105" s="116"/>
+      <c r="B105" s="119"/>
       <c r="C105" s="34" t="s">
         <v>122</v>
       </c>
@@ -10195,8 +10194,8 @@
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A106" s="104"/>
-      <c r="B106" s="107"/>
+      <c r="A106" s="116"/>
+      <c r="B106" s="119"/>
       <c r="C106" s="34" t="s">
         <v>123</v>
       </c>
@@ -10255,8 +10254,8 @@
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A107" s="104"/>
-      <c r="B107" s="107"/>
+      <c r="A107" s="116"/>
+      <c r="B107" s="119"/>
       <c r="C107" s="34" t="s">
         <v>124</v>
       </c>
@@ -10315,8 +10314,8 @@
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A108" s="104"/>
-      <c r="B108" s="107"/>
+      <c r="A108" s="116"/>
+      <c r="B108" s="119"/>
       <c r="C108" s="34" t="s">
         <v>125</v>
       </c>
@@ -10375,8 +10374,8 @@
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A109" s="104"/>
-      <c r="B109" s="107"/>
+      <c r="A109" s="116"/>
+      <c r="B109" s="119"/>
       <c r="C109" s="34" t="s">
         <v>126</v>
       </c>
@@ -10435,8 +10434,8 @@
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A110" s="104"/>
-      <c r="B110" s="107"/>
+      <c r="A110" s="116"/>
+      <c r="B110" s="119"/>
       <c r="C110" s="34" t="s">
         <v>127</v>
       </c>
@@ -10495,8 +10494,8 @@
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A111" s="104"/>
-      <c r="B111" s="107"/>
+      <c r="A111" s="116"/>
+      <c r="B111" s="119"/>
       <c r="C111" s="34" t="s">
         <v>128</v>
       </c>
@@ -10555,8 +10554,8 @@
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A112" s="104"/>
-      <c r="B112" s="107"/>
+      <c r="A112" s="116"/>
+      <c r="B112" s="119"/>
       <c r="C112" s="34" t="s">
         <v>129</v>
       </c>
@@ -10615,8 +10614,8 @@
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A113" s="104"/>
-      <c r="B113" s="107"/>
+      <c r="A113" s="116"/>
+      <c r="B113" s="119"/>
       <c r="C113" s="34" t="s">
         <v>130</v>
       </c>
@@ -10675,8 +10674,8 @@
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A114" s="104"/>
-      <c r="B114" s="107"/>
+      <c r="A114" s="116"/>
+      <c r="B114" s="119"/>
       <c r="C114" s="34" t="s">
         <v>131</v>
       </c>
@@ -10738,8 +10737,8 @@
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A115" s="104"/>
-      <c r="B115" s="106">
+      <c r="A115" s="116"/>
+      <c r="B115" s="122">
         <v>3</v>
       </c>
       <c r="C115" s="22" t="s">
@@ -10800,8 +10799,8 @@
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A116" s="104"/>
-      <c r="B116" s="107"/>
+      <c r="A116" s="116"/>
+      <c r="B116" s="119"/>
       <c r="C116" s="22" t="s">
         <v>132</v>
       </c>
@@ -10860,8 +10859,8 @@
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A117" s="104"/>
-      <c r="B117" s="107"/>
+      <c r="A117" s="116"/>
+      <c r="B117" s="119"/>
       <c r="C117" s="22" t="s">
         <v>118</v>
       </c>
@@ -10920,8 +10919,8 @@
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A118" s="104"/>
-      <c r="B118" s="107"/>
+      <c r="A118" s="116"/>
+      <c r="B118" s="119"/>
       <c r="C118" s="22" t="s">
         <v>119</v>
       </c>
@@ -10980,8 +10979,8 @@
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A119" s="104"/>
-      <c r="B119" s="107"/>
+      <c r="A119" s="116"/>
+      <c r="B119" s="119"/>
       <c r="C119" s="22" t="s">
         <v>120</v>
       </c>
@@ -11037,8 +11036,8 @@
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A120" s="104"/>
-      <c r="B120" s="107"/>
+      <c r="A120" s="116"/>
+      <c r="B120" s="119"/>
       <c r="C120" s="22" t="s">
         <v>121</v>
       </c>
@@ -11094,8 +11093,8 @@
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A121" s="104"/>
-      <c r="B121" s="107"/>
+      <c r="A121" s="116"/>
+      <c r="B121" s="119"/>
       <c r="C121" s="22" t="s">
         <v>122</v>
       </c>
@@ -11151,8 +11150,8 @@
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A122" s="104"/>
-      <c r="B122" s="107"/>
+      <c r="A122" s="116"/>
+      <c r="B122" s="119"/>
       <c r="C122" s="22" t="s">
         <v>123</v>
       </c>
@@ -11208,8 +11207,8 @@
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A123" s="104"/>
-      <c r="B123" s="107"/>
+      <c r="A123" s="116"/>
+      <c r="B123" s="119"/>
       <c r="C123" s="22" t="s">
         <v>124</v>
       </c>
@@ -11265,8 +11264,8 @@
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A124" s="104"/>
-      <c r="B124" s="107"/>
+      <c r="A124" s="116"/>
+      <c r="B124" s="119"/>
       <c r="C124" s="22" t="s">
         <v>125</v>
       </c>
@@ -11322,8 +11321,8 @@
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A125" s="104"/>
-      <c r="B125" s="107"/>
+      <c r="A125" s="116"/>
+      <c r="B125" s="119"/>
       <c r="C125" s="22" t="s">
         <v>126</v>
       </c>
@@ -11382,8 +11381,8 @@
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A126" s="104"/>
-      <c r="B126" s="107"/>
+      <c r="A126" s="116"/>
+      <c r="B126" s="119"/>
       <c r="C126" s="22" t="s">
         <v>127</v>
       </c>
@@ -11442,8 +11441,8 @@
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A127" s="104"/>
-      <c r="B127" s="107"/>
+      <c r="A127" s="116"/>
+      <c r="B127" s="119"/>
       <c r="C127" s="22" t="s">
         <v>128</v>
       </c>
@@ -11502,8 +11501,8 @@
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A128" s="104"/>
-      <c r="B128" s="107"/>
+      <c r="A128" s="116"/>
+      <c r="B128" s="119"/>
       <c r="C128" s="22" t="s">
         <v>129</v>
       </c>
@@ -11562,8 +11561,8 @@
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A129" s="104"/>
-      <c r="B129" s="107"/>
+      <c r="A129" s="116"/>
+      <c r="B129" s="119"/>
       <c r="C129" s="22" t="s">
         <v>130</v>
       </c>
@@ -11619,8 +11618,8 @@
       </c>
     </row>
     <row r="130" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="116"/>
-      <c r="B130" s="109"/>
+      <c r="A130" s="117"/>
+      <c r="B130" s="120"/>
       <c r="C130" s="59" t="s">
         <v>133</v>
       </c>
@@ -11676,10 +11675,10 @@
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A131" s="119" t="s">
+      <c r="A131" s="115" t="s">
         <v>134</v>
       </c>
-      <c r="B131" s="120">
+      <c r="B131" s="118">
         <v>1</v>
       </c>
       <c r="C131" s="52" t="s">
@@ -11690,7 +11689,7 @@
       </c>
       <c r="E131" s="45"/>
       <c r="F131" s="46"/>
-      <c r="G131" s="117" t="s">
+      <c r="G131" s="104" t="s">
         <v>136</v>
       </c>
       <c r="H131" s="85"/>
@@ -11745,15 +11744,15 @@
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A132" s="104"/>
-      <c r="B132" s="107"/>
+      <c r="A132" s="116"/>
+      <c r="B132" s="119"/>
       <c r="C132" s="55" t="s">
         <v>137</v>
       </c>
       <c r="D132" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="G132" s="122"/>
+      <c r="G132" s="105"/>
       <c r="I132" s="86" t="str">
         <f t="shared" ref="I132:I153" si="23">IF(O132="",P132,O132)</f>
         <v/>
@@ -11805,15 +11804,15 @@
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A133" s="104"/>
-      <c r="B133" s="107"/>
+      <c r="A133" s="116"/>
+      <c r="B133" s="119"/>
       <c r="C133" s="55" t="s">
         <v>138</v>
       </c>
       <c r="D133" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="G133" s="122"/>
+      <c r="G133" s="105"/>
       <c r="I133" s="86" t="str">
         <f t="shared" si="23"/>
         <v/>
@@ -11865,15 +11864,15 @@
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A134" s="104"/>
-      <c r="B134" s="107"/>
+      <c r="A134" s="116"/>
+      <c r="B134" s="119"/>
       <c r="C134" s="55" t="s">
         <v>139</v>
       </c>
       <c r="D134" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="G134" s="122"/>
+      <c r="G134" s="105"/>
       <c r="I134" s="86" t="str">
         <f t="shared" si="23"/>
         <v/>
@@ -11925,15 +11924,15 @@
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A135" s="104"/>
-      <c r="B135" s="107"/>
+      <c r="A135" s="116"/>
+      <c r="B135" s="119"/>
       <c r="C135" s="55" t="s">
         <v>140</v>
       </c>
       <c r="D135" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="G135" s="122"/>
+      <c r="G135" s="105"/>
       <c r="I135" s="86" t="str">
         <f t="shared" si="23"/>
         <v/>
@@ -11985,15 +11984,15 @@
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A136" s="104"/>
-      <c r="B136" s="107"/>
+      <c r="A136" s="116"/>
+      <c r="B136" s="119"/>
       <c r="C136" s="55" t="s">
         <v>141</v>
       </c>
       <c r="D136" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="G136" s="122"/>
+      <c r="G136" s="105"/>
       <c r="I136" s="86" t="str">
         <f t="shared" si="23"/>
         <v/>
@@ -12045,15 +12044,15 @@
       </c>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A137" s="104"/>
-      <c r="B137" s="107"/>
+      <c r="A137" s="116"/>
+      <c r="B137" s="119"/>
       <c r="C137" s="55" t="s">
         <v>142</v>
       </c>
       <c r="D137" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="G137" s="122"/>
+      <c r="G137" s="105"/>
       <c r="I137" s="86" t="str">
         <f t="shared" si="23"/>
         <v/>
@@ -12105,15 +12104,15 @@
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A138" s="104"/>
-      <c r="B138" s="107"/>
+      <c r="A138" s="116"/>
+      <c r="B138" s="119"/>
       <c r="C138" s="55" t="s">
         <v>143</v>
       </c>
       <c r="D138" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="G138" s="122"/>
+      <c r="G138" s="105"/>
       <c r="I138" s="86" t="str">
         <f t="shared" si="23"/>
         <v/>
@@ -12165,15 +12164,15 @@
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A139" s="104"/>
-      <c r="B139" s="107"/>
+      <c r="A139" s="116"/>
+      <c r="B139" s="119"/>
       <c r="C139" s="55" t="s">
         <v>178</v>
       </c>
       <c r="D139" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="G139" s="122"/>
+      <c r="G139" s="105"/>
       <c r="I139" s="86" t="str">
         <f t="shared" si="23"/>
         <v/>
@@ -12225,15 +12224,15 @@
       </c>
     </row>
     <row r="140" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="116"/>
-      <c r="B140" s="109"/>
+      <c r="A140" s="117"/>
+      <c r="B140" s="120"/>
       <c r="C140" s="56" t="s">
         <v>144</v>
       </c>
       <c r="D140" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="G140" s="123"/>
+      <c r="G140" s="121"/>
       <c r="I140" s="86" t="str">
         <f t="shared" si="23"/>
         <v/>
@@ -12285,10 +12284,10 @@
       </c>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A141" s="119" t="s">
+      <c r="A141" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="B141" s="120" t="s">
+      <c r="B141" s="118" t="s">
         <v>146</v>
       </c>
       <c r="C141" s="52" t="s">
@@ -12299,7 +12298,7 @@
       </c>
       <c r="E141" s="45"/>
       <c r="F141" s="46"/>
-      <c r="G141" s="117" t="s">
+      <c r="G141" s="104" t="s">
         <v>148</v>
       </c>
       <c r="H141" s="85"/>
@@ -12354,15 +12353,15 @@
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A142" s="104"/>
-      <c r="B142" s="107"/>
+      <c r="A142" s="116"/>
+      <c r="B142" s="119"/>
       <c r="C142" s="55" t="s">
         <v>149</v>
       </c>
       <c r="D142" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G142" s="122"/>
+      <c r="G142" s="105"/>
       <c r="I142" s="86" t="str">
         <f t="shared" si="23"/>
         <v/>
@@ -12414,8 +12413,8 @@
       </c>
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A143" s="104"/>
-      <c r="B143" s="107"/>
+      <c r="A143" s="116"/>
+      <c r="B143" s="119"/>
       <c r="C143" s="55" t="s">
         <v>199</v>
       </c>
@@ -12423,7 +12422,7 @@
         <v>200</v>
       </c>
       <c r="E143" s="26"/>
-      <c r="G143" s="122"/>
+      <c r="G143" s="105"/>
       <c r="I143" s="86" t="str">
         <f t="shared" si="23"/>
         <v/>
@@ -12475,8 +12474,8 @@
       </c>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A144" s="104"/>
-      <c r="B144" s="107"/>
+      <c r="A144" s="116"/>
+      <c r="B144" s="119"/>
       <c r="C144" s="55" t="s">
         <v>201</v>
       </c>
@@ -12485,7 +12484,7 @@
       </c>
       <c r="E144" s="31"/>
       <c r="F144" s="32"/>
-      <c r="G144" s="118"/>
+      <c r="G144" s="103"/>
       <c r="H144" s="89"/>
       <c r="I144" s="89" t="str">
         <f t="shared" si="23"/>
@@ -12538,8 +12537,8 @@
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A145" s="104"/>
-      <c r="B145" s="106" t="s">
+      <c r="A145" s="116"/>
+      <c r="B145" s="122" t="s">
         <v>150</v>
       </c>
       <c r="C145" s="54" t="s">
@@ -12548,7 +12547,7 @@
       <c r="D145" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G145" s="121" t="s">
+      <c r="G145" s="102" t="s">
         <v>151</v>
       </c>
       <c r="I145" s="86" t="str">
@@ -12602,15 +12601,15 @@
       </c>
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A146" s="104"/>
-      <c r="B146" s="107"/>
+      <c r="A146" s="116"/>
+      <c r="B146" s="119"/>
       <c r="C146" s="55" t="s">
         <v>149</v>
       </c>
       <c r="D146" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G146" s="122"/>
+      <c r="G146" s="105"/>
       <c r="I146" s="86" t="str">
         <f t="shared" si="23"/>
         <v/>
@@ -12662,8 +12661,8 @@
       </c>
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A147" s="116"/>
-      <c r="B147" s="109"/>
+      <c r="A147" s="117"/>
+      <c r="B147" s="120"/>
       <c r="C147" s="56" t="s">
         <v>199</v>
       </c>
@@ -12671,7 +12670,7 @@
         <v>202</v>
       </c>
       <c r="E147" s="26"/>
-      <c r="G147" s="122"/>
+      <c r="G147" s="105"/>
       <c r="I147" s="86" t="str">
         <f t="shared" si="23"/>
         <v/>
@@ -12723,15 +12722,15 @@
       </c>
     </row>
     <row r="148" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="116"/>
-      <c r="B148" s="109"/>
+      <c r="A148" s="117"/>
+      <c r="B148" s="120"/>
       <c r="C148" s="56" t="s">
         <v>201</v>
       </c>
       <c r="D148" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G148" s="123"/>
+      <c r="G148" s="121"/>
       <c r="I148" s="86" t="str">
         <f t="shared" si="23"/>
         <v/>
@@ -12783,10 +12782,10 @@
       </c>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A149" s="126" t="s">
+      <c r="A149" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="B149" s="129" t="s">
+      <c r="B149" s="109" t="s">
         <v>153</v>
       </c>
       <c r="C149" s="60" t="s">
@@ -12797,7 +12796,7 @@
       </c>
       <c r="E149" s="45"/>
       <c r="F149" s="46"/>
-      <c r="G149" s="117" t="s">
+      <c r="G149" s="104" t="s">
         <v>155</v>
       </c>
       <c r="H149" s="85"/>
@@ -12852,15 +12851,15 @@
       </c>
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A150" s="127"/>
-      <c r="B150" s="130"/>
+      <c r="A150" s="107"/>
+      <c r="B150" s="110"/>
       <c r="C150" s="61" t="s">
         <v>156</v>
       </c>
       <c r="D150" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="G150" s="122"/>
+      <c r="G150" s="105"/>
       <c r="I150" s="86" t="str">
         <f t="shared" si="23"/>
         <v/>
@@ -12912,15 +12911,15 @@
       </c>
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A151" s="127"/>
-      <c r="B151" s="130"/>
+      <c r="A151" s="107"/>
+      <c r="B151" s="110"/>
       <c r="C151" s="61" t="s">
         <v>157</v>
       </c>
       <c r="D151" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="G151" s="122"/>
+      <c r="G151" s="105"/>
       <c r="I151" s="86" t="str">
         <f t="shared" si="23"/>
         <v/>
@@ -12972,15 +12971,15 @@
       </c>
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A152" s="127"/>
-      <c r="B152" s="130"/>
+      <c r="A152" s="107"/>
+      <c r="B152" s="110"/>
       <c r="C152" s="61" t="s">
         <v>158</v>
       </c>
       <c r="D152" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="G152" s="122"/>
+      <c r="G152" s="105"/>
       <c r="I152" s="86" t="str">
         <f t="shared" si="23"/>
         <v/>
@@ -13032,8 +13031,8 @@
       </c>
     </row>
     <row r="153" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="128"/>
-      <c r="B153" s="131"/>
+      <c r="A153" s="108"/>
+      <c r="B153" s="111"/>
       <c r="C153" s="62" t="s">
         <v>159</v>
       </c>
@@ -13042,7 +13041,7 @@
       </c>
       <c r="E153" s="64"/>
       <c r="F153" s="65"/>
-      <c r="G153" s="132"/>
+      <c r="G153" s="112"/>
       <c r="H153" s="87"/>
       <c r="I153" s="87" t="str">
         <f t="shared" si="23"/>
@@ -13097,63 +13096,6 @@
     <row r="154" spans="1:22" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G41:G47"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="G68:G74"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="B149:B153"/>
-    <mergeCell ref="G149:G153"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A131:A140"/>
-    <mergeCell ref="B131:B140"/>
-    <mergeCell ref="G131:G140"/>
-    <mergeCell ref="A141:A148"/>
-    <mergeCell ref="B141:B144"/>
-    <mergeCell ref="G141:G144"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="G145:G148"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B68:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A83:A130"/>
-    <mergeCell ref="B83:B98"/>
-    <mergeCell ref="B99:B114"/>
-    <mergeCell ref="B115:B130"/>
-    <mergeCell ref="A41:A82"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A30:A40"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="G31:G35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="G36:G40"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="G16:G17"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B3"/>
@@ -13170,6 +13112,63 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A30:A40"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A83:A130"/>
+    <mergeCell ref="B83:B98"/>
+    <mergeCell ref="B99:B114"/>
+    <mergeCell ref="B115:B130"/>
+    <mergeCell ref="A41:A82"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="B149:B153"/>
+    <mergeCell ref="G149:G153"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A131:A140"/>
+    <mergeCell ref="B131:B140"/>
+    <mergeCell ref="G131:G140"/>
+    <mergeCell ref="A141:A148"/>
+    <mergeCell ref="B141:B144"/>
+    <mergeCell ref="G141:G144"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="G145:G148"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G41:G47"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="G68:G74"/>
+    <mergeCell ref="G48:G51"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
